--- a/audit.xlsx
+++ b/audit.xlsx
@@ -520,7 +520,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -534,7 +534,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -688,7 +688,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
